--- a/02_test4review/forReview_Cabin2022Campbell.xlsx
+++ b/02_test4review/forReview_Cabin2022Campbell.xlsx
@@ -77819,7 +77819,7 @@
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>2022-08-06 17:00:00</t>
+          <t>2022-08-07 16:59:59</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
@@ -89570,7 +89570,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -90923,93 +90923,83 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Missing</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Missing</t>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>44781</v>
+        <v>44785</v>
       </c>
       <c r="B76">
-        <v>7.600000000000001</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B77">
+        <v>0.8</v>
+      </c>
+      <c r="L77">
         <v>2</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="B78">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>44793</v>
+        <v>44798</v>
       </c>
       <c r="B79">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B80">
-        <v>0.6000000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="L80">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B81">
-        <v>4.600000000000001</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -91017,43 +91007,43 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>44800</v>
+        <v>44816</v>
       </c>
       <c r="B82">
-        <v>7.600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>44816</v>
+        <v>44818</v>
       </c>
       <c r="B83">
-        <v>0.4</v>
+        <v>11.6</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B84">
-        <v>11.6</v>
+        <v>6.4</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B85">
-        <v>6.4</v>
+        <v>11.6</v>
       </c>
       <c r="L85">
         <v>2</v>
@@ -91061,10 +91051,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B86">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="L86">
         <v>2</v>
@@ -91072,10 +91062,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="L87">
         <v>2</v>
@@ -91083,23 +91073,12 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>44822</v>
+        <v>44833</v>
       </c>
       <c r="B88">
-        <v>0.2</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="L88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2">
-        <v>44833</v>
-      </c>
-      <c r="B89">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="L89">
         <v>12</v>
       </c>
     </row>
